--- a/Technical/Game Design/Tablitsy_boepripasov.xlsx
+++ b/Technical/Game Design/Tablitsy_boepripasov.xlsx
@@ -452,6 +452,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
